--- a/spc/results/t01/M_0.25_k_0.05/iht_GAUSSIAN_40dB/iht_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.25_k_0.05/iht_GAUSSIAN_40dB/iht_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A349"/>
+  <dimension ref="A1:A191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,796 +1390,6 @@
         <v>123.8353325982296</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>123.7126991278895</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>123.6079328358899</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>123.3516098246627</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>122.9705338059492</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>122.652918508895</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>122.3902972377418</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>122.1707962978291</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>121.9855596755573</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>121.8278958437321</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>121.692682619364</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>121.5759486132502</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>121.4745762121424</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>121.3860887635438</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>121.3084965403607</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>121.2401840759993</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>120.9928737072306</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>120.6141532202085</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>120.295567412237</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>120.0303918800725</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>119.6399528232715</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>119.3141190467674</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>119.0445127829127</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>118.819237891411</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>118.6293510247543</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>118.4680420856254</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>118.330059841608</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>118.2113056083865</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>118.1085429530304</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>118.0191881219947</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>117.9411571221989</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>117.8727529274038</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>117.8125813763138</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>117.7594877886352</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>117.5380628024613</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>117.3515507015779</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>117.1981269085277</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>117.0703094052378</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>116.9626183674076</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>116.870983529607</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>116.7923376116215</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>116.724335274903</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>116.6651572041372</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>116.6133722625014</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>116.5678395361732</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>116.5276379842852</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>116.3212734827399</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>116.1426907253854</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>115.9948491245558</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>115.718648733153</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>115.3401285802467</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>115.0250730396337</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>114.7638093428722</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>114.5444958471445</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>114.2041733949679</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>113.9163663388058</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>113.6745437636081</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>113.4692624541117</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>113.2934112779813</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>113.141562465169</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>113.0095173680808</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>112.8939855325539</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>112.7923557523036</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>112.547860140638</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>112.3446068812653</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>112.0313092049257</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>111.7704563547281</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>111.5545240277157</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>111.3740134553903</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>111.2217739456055</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>111.0923556841588</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>110.9815544704486</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>110.8860886490195</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>110.8033676738341</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>110.7313246536947</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>110.6682939326587</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>110.6129206454939</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>110.4277716539595</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>110.2709144137187</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>110.1413257399065</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>110.0329989080065</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>109.9414671910411</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>109.8633714690408</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>109.7961563821702</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>109.7378553194834</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>109.6869371280504</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>109.6421959584125</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>109.6026714522016</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>109.5675904186785</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>109.5363238395237</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>109.5083548890649</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>109.4832549315424</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>109.4606653406615</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>109.4402836028692</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>109.4218525980247</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>109.4051522562201</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>109.3899930062042</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>109.3762105857943</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>109.363661896168</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>109.3522216627198</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>109.3417797241118</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>109.3322388144472</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>109.3235127355194</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>109.3155248399483</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>109.3082067638997</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>109.301497361598</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>109.2953418041107</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>109.2896908127468</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>109.2845000034684</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>109.2797293234141</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>109.2753425642985</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>109.2713069403349</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>109.267592720602</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>109.2641729075879</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>109.2610229550883</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>109.2581205198023</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>109.2554452419089</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>109.2529785506704</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>109.2507034917358</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>109.2486045733305</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>109.2466676289393</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>109.2448796944434</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>109.2432288979635</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>109.2417043609054</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>109.24029610891</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>109.2389949915837</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>109.2377926100312</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>109.2366812513382</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>109.2356538292578</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>109.2347038304463</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>109.2338252656716</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>109.2330126254863</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>109.2322608399167</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>109.2315652417669</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>109.2309215331861</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>109.2303257551821</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>109.2297742597996</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>109.2292636847127</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>109.2287909300041</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>109.228353136931</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>109.227947668494</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>109.2275720916472</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>109.2272241610001</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>109.2269018038803</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>109.2266031066351</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>109.2263263020645</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>109.2260697578862</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>109.2258319661441</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>109.2256115334786</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>109.2254071721858</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>109.2252176919979</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>109.2250419925245</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>109.2248790562995</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>109.2247279423825</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>109.2245877804686</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>109.2244577654662</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>109.2243371525012</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>109.224225252316</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>109.2241214270293</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
